--- a/AssignmentNo2/AssignmentNo2/Data/out_TaxID.xlsx
+++ b/AssignmentNo2/AssignmentNo2/Data/out_TaxID.xlsx
@@ -14,64 +14,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>TaxID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>WIID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT213456</t>
+  </si>
+  <si>
+    <t>RO212121</t>
+  </si>
+  <si>
+    <t>DE767565</t>
+  </si>
+  <si>
+    <t>FR453231</t>
+  </si>
+  <si>
+    <t>RO125678</t>
+  </si>
+  <si>
     <t>RO874232</t>
   </si>
   <si>
+    <t>RO657483</t>
+  </si>
+  <si>
     <t>FR322345</t>
   </si>
   <si>
+    <t>DE763212</t>
+  </si>
+  <si>
+    <t>RO892123</t>
+  </si>
+  <si>
     <t>DE456232</t>
   </si>
   <si>
-    <t>DE325476</t>
+    <t>FR329083</t>
+  </si>
+  <si>
+    <t>RO874231</t>
+  </si>
+  <si>
+    <t>FR065748</t>
+  </si>
+  <si>
+    <t>RO345879</t>
+  </si>
+  <si>
+    <t>RO254678</t>
   </si>
   <si>
     <t>IT231232</t>
   </si>
   <si>
-    <t>RU567434</t>
-  </si>
-  <si>
-    <t>DE763212</t>
-  </si>
-  <si>
-    <t>FR065748</t>
-  </si>
-  <si>
-    <t>RO892123</t>
-  </si>
-  <si>
-    <t>FR453231</t>
-  </si>
-  <si>
     <t>RO123456</t>
-  </si>
-  <si>
-    <t>RO345879</t>
-  </si>
-  <si>
-    <t>DE987564</t>
-  </si>
-  <si>
-    <t>IT754893</t>
-  </si>
-  <si>
-    <t>FR329083</t>
-  </si>
-  <si>
-    <t>IT213456</t>
-  </si>
-  <si>
-    <t>RO212121</t>
-  </si>
-  <si>
-    <t>DE767565</t>
   </si>
 </sst>
 </file>
@@ -448,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -459,99 +463,156 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>197784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>464444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>811174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>247044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>600594</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>942224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>879584</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>932654</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>242384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>650934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>513024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>981414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>325524</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>270534</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>300714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>985154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>909494</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>646734</v>
       </c>
     </row>
   </sheetData>
